--- a/update-script-workflow/ig/ValueSet-vsMedications.xlsx
+++ b/update-script-workflow/ig/ValueSet-vsMedications.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T08:10:17+00:00</t>
+    <t>2024-03-22T08:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-script-workflow/ig/ValueSet-vsMedications.xlsx
+++ b/update-script-workflow/ig/ValueSet-vsMedications.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T08:30:13+00:00</t>
+    <t>2024-03-22T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
